--- a/Theo dõi/CUỐI T12 2025 + T1 2026.xlsx
+++ b/Theo dõi/CUỐI T12 2025 + T1 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F9474-30DB-43EF-B4B6-F8E8664B9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D59100-22F0-4C12-AC7B-C4FD8CBC20D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MẪU" sheetId="1" r:id="rId1"/>
     <sheet name="29-12" sheetId="2" r:id="rId2"/>
     <sheet name="30-12" sheetId="3" r:id="rId3"/>
-    <sheet name="30-12 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="31-12" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -105,12 +105,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>Column11</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>HÌNH THỨC</t>
   </si>
   <si>
@@ -123,15 +117,6 @@
     <t>0974 650 440</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
     <t>0969 010 942</t>
   </si>
   <si>
@@ -220,13 +205,73 @@
   </si>
   <si>
     <t>DOANH THU 31/12/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68HC 001.78 </t>
+  </si>
+  <si>
+    <t>0369 922 571</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68HC 001.70 </t>
+  </si>
+  <si>
+    <t>NGHỈ LUÔN SAU 31/12</t>
+  </si>
+  <si>
+    <t>68HC 001.98</t>
+  </si>
+  <si>
+    <t>QUANG HÀ (VIN)</t>
+  </si>
+  <si>
+    <t>TRƯƠNG VŨ CA (VŨ LINH) (Vin)</t>
+  </si>
+  <si>
+    <t>NGUYỄN CHÍ BÌNH (Vin)</t>
+  </si>
+  <si>
+    <t>LÊ VĂN TÙNG (Sun)</t>
+  </si>
+  <si>
+    <t>ĐỖ VĂN CHUNG (Sun)</t>
+  </si>
+  <si>
+    <t>LÊ THÀNH LẬP (Sun)</t>
+  </si>
+  <si>
+    <t>DO THÀNH (Sun)</t>
+  </si>
+  <si>
+    <t>HỒ SỸ ANH (Sun)</t>
+  </si>
+  <si>
+    <t>NAM DO (Sun)</t>
+  </si>
+  <si>
+    <t>NGUYỄN QUỐC NAM (Sun)</t>
+  </si>
+  <si>
+    <t>NHẤT (Sun)</t>
+  </si>
+  <si>
+    <t>TRẦN THIỆN (Sun)</t>
+  </si>
+  <si>
+    <t>THANH  (Sun)</t>
+  </si>
+  <si>
+    <t>VĂN HẠNH (Sun)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +381,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +405,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -400,13 +471,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,49 +486,77 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -465,7 +564,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="53">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -962,6 +1064,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -991,24 +1111,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1140,84 +1242,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}" name="Table1" displayName="Table1" ref="B5:K22" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}" name="Table1" displayName="Table1" ref="B5:K22" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B5:K22" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9D6D1DC3-1CDD-4F3C-B1B7-8AB165E44568}" name="STT" dataDxfId="48" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{13E8BA06-8365-403A-B32E-04AE92B765CC}" name="HỌ TÊN" dataDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{FC61B8E4-BD27-46F3-88CC-BF4B927C0BEB}" name="ĐIỆN THOẠI" dataDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{81E95A52-D9B8-474A-8928-97CBD9B95301}" name="CCCD" dataDxfId="45" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{8271E599-3E92-445F-9654-702A3E2F6015}" name="ĐỊA CHỈ" dataDxfId="44" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{A1EE5CD9-899B-4972-8C02-79B676C0418E}" name="BIỂN SỐ XE" dataDxfId="43" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{D56A811F-8BE5-4C31-8D06-090CA9AB4EEC}" name="DOANH THU" dataDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{65D461C0-8662-4294-B2D4-14AFA507AEC5}" name="THỰC LÃNH" dataDxfId="39" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{9D6D1DC3-1CDD-4F3C-B1B7-8AB165E44568}" name="STT" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{13E8BA06-8365-403A-B32E-04AE92B765CC}" name="HỌ TÊN" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{FC61B8E4-BD27-46F3-88CC-BF4B927C0BEB}" name="ĐIỆN THOẠI" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{81E95A52-D9B8-474A-8928-97CBD9B95301}" name="CCCD" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{8271E599-3E92-445F-9654-702A3E2F6015}" name="ĐỊA CHỈ" dataDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{A1EE5CD9-899B-4972-8C02-79B676C0418E}" name="BIỂN SỐ XE" dataDxfId="44" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{D56A811F-8BE5-4C31-8D06-090CA9AB4EEC}" name="DOANH THU" dataDxfId="43" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{65D461C0-8662-4294-B2D4-14AFA507AEC5}" name="THỰC LÃNH" dataDxfId="42" dataCellStyle="Normal">
       <calculatedColumnFormula>IF(ISNUMBER(H6),H6/2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B11AF6F4-2B2E-42F5-B282-20EB2045BFC4}" name="HÌNH THỨC" dataDxfId="42" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{188C8D09-A7C8-4D41-A663-D79A1D68DC65}" name="BILL" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{B11AF6F4-2B2E-42F5-B282-20EB2045BFC4}" name="HÌNH THỨC" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{188C8D09-A7C8-4D41-A663-D79A1D68DC65}" name="BILL" dataDxfId="40" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{489B5F77-8206-4281-8C8E-867E26637324}" name="Table13" displayName="Table13" ref="B5:K22" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{489B5F77-8206-4281-8C8E-867E26637324}" name="Table13" displayName="Table13" ref="B5:K22" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B5:K22" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{577E289C-FA4B-45DF-9065-86FB333DA060}" name="STT" dataDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00A3AB03-C15A-48E3-A03E-DEADAAF3C45F}" name="HỌ TÊN" dataDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{DB30EFAA-184F-42F5-B5EA-F4DC7049FDC3}" name="ĐIỆN THOẠI" dataDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{51CB11F1-3522-4E92-8A02-323DC7CA307B}" name="CCCD" dataDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{9B501042-1A99-4382-A5B4-8E2BA2BF8FCD}" name="ĐỊA CHỈ" dataDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{0BBBA286-D851-41BD-9241-E91FC9835158}" name="BIỂN SỐ XE" dataDxfId="30" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{BC5EDC90-2CAA-4DC5-ACA3-2FEF9BDCBA8F}" name="DOANH THU" dataDxfId="29" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{D2A5A478-D163-4C13-886C-1755FE4D24ED}" name="THỰC LÃNH" dataDxfId="28" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{577E289C-FA4B-45DF-9065-86FB333DA060}" name="STT" dataDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00A3AB03-C15A-48E3-A03E-DEADAAF3C45F}" name="HỌ TÊN" dataDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{DB30EFAA-184F-42F5-B5EA-F4DC7049FDC3}" name="ĐIỆN THOẠI" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{51CB11F1-3522-4E92-8A02-323DC7CA307B}" name="CCCD" dataDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{9B501042-1A99-4382-A5B4-8E2BA2BF8FCD}" name="ĐỊA CHỈ" dataDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{0BBBA286-D851-41BD-9241-E91FC9835158}" name="BIỂN SỐ XE" dataDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{BC5EDC90-2CAA-4DC5-ACA3-2FEF9BDCBA8F}" name="DOANH THU" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{D2A5A478-D163-4C13-886C-1755FE4D24ED}" name="THỰC LÃNH" dataDxfId="29" dataCellStyle="Normal">
       <calculatedColumnFormula>IF(ISNUMBER(H6),H6/2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E77189E1-2A05-4654-BC73-3FBCBFAA3420}" name="HÌNH THỨC" dataDxfId="27" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{FB8F71AD-AFA1-4E72-BFE4-FC62250EC925}" name="BILL" dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{E77189E1-2A05-4654-BC73-3FBCBFAA3420}" name="HÌNH THỨC" dataDxfId="28" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{FB8F71AD-AFA1-4E72-BFE4-FC62250EC925}" name="BILL" dataDxfId="27" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{563177D1-1013-401B-BB7F-CF915DE63325}" name="Table14" displayName="Table14" ref="B5:K22" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23" headerRowCellStyle="Bad" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{563177D1-1013-401B-BB7F-CF915DE63325}" name="Table14" displayName="Table14" ref="B5:K22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" headerRowCellStyle="Bad" dataCellStyle="Normal">
   <autoFilter ref="B5:K22" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{56245CEC-5B93-4E37-91BA-76998A3A6878}" name="STT" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5D410F34-6C22-4005-98BA-66EEF8E95AE6}" name="HỌ TÊN" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{3A7C7AD2-8083-445E-BD99-F734D0E7A479}" name="ĐIỆN THOẠI" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{0AF50696-4CF7-41B9-97A6-B34BD28D7210}" name="CCCD" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{8D5FCBA2-136B-4061-BADF-D92FBC3936F0}" name="ĐỊA CHỈ" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{E1DD68A3-2EC3-4559-B7EC-1D9901BC9246}" name="BIỂN SỐ XE" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{83ED5A08-2EF5-41D5-A1DA-1AC37DF1AE2D}" name="DOANH THU" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{6DE6ACCF-221A-4ADD-82C5-46161F42CC3B}" name="THỰC LÃNH" dataDxfId="15" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{56245CEC-5B93-4E37-91BA-76998A3A6878}" name="STT" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5D410F34-6C22-4005-98BA-66EEF8E95AE6}" name="HỌ TÊN" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{3A7C7AD2-8083-445E-BD99-F734D0E7A479}" name="ĐIỆN THOẠI" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{0AF50696-4CF7-41B9-97A6-B34BD28D7210}" name="CCCD" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{8D5FCBA2-136B-4061-BADF-D92FBC3936F0}" name="ĐỊA CHỈ" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{E1DD68A3-2EC3-4559-B7EC-1D9901BC9246}" name="BIỂN SỐ XE" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{83ED5A08-2EF5-41D5-A1DA-1AC37DF1AE2D}" name="DOANH THU" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{6DE6ACCF-221A-4ADD-82C5-46161F42CC3B}" name="THỰC LÃNH" dataDxfId="16" dataCellStyle="Normal">
       <calculatedColumnFormula>IF(ISNUMBER(H6),H6/2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{051C24EE-47BB-4F55-A227-A306E90C4290}" name="HÌNH THỨC" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{4B6DE2B9-350D-4115-9F51-EA7BEE111CDB}" name="BILL" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{051C24EE-47BB-4F55-A227-A306E90C4290}" name="HÌNH THỨC" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{4B6DE2B9-350D-4115-9F51-EA7BEE111CDB}" name="BILL" dataDxfId="14" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C798AAE-1F84-4DA9-AE77-F09C8255243B}" name="Table145" displayName="Table145" ref="B5:K22" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Bad" dataCellStyle="Normal">
-  <autoFilter ref="B5:K22" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0C6BCC02-AB7E-46E5-B4EC-A711964CE74C}" name="STT" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{EF455938-D941-42CD-BE9D-9DB897A24934}" name="HỌ TÊN" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{691568CF-C663-4A43-B3E7-DD3286DC8E2B}" name="ĐIỆN THOẠI" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{DAB090F3-80B6-4807-BAC7-B603156ED678}" name="CCCD" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{F63665C1-F46A-4DA8-BF61-B6591D51CA13}" name="ĐỊA CHỈ" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{B4BCF768-5B55-424A-B006-3CA52E981F14}" name="BIỂN SỐ XE" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{32EEED41-DF91-4251-BCA9-F4D1365FF403}" name="DOANH THU" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{B5D3D9B8-2144-465B-83E5-810E4AC53125}" name="THỰC LÃNH" dataDxfId="2" dataCellStyle="Normal">
-      <calculatedColumnFormula>IF(ISNUMBER(H6),H6/2,"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{E203EBEB-AEFC-47BD-ACC9-A4F252E634D3}" name="HÌNH THỨC" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{85392A71-ECD7-4C29-8980-D2A1CADFDF13}" name="BILL" dataDxfId="0" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D29B90D4-454D-4880-B31D-A91C2CDC83A9}" name="Table145" displayName="Table145" ref="B6:L23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Bad" dataCellStyle="Normal">
+  <autoFilter ref="B6:L23" xr:uid="{D102E08B-F339-41A7-8779-8E498408C686}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{414C8D44-6DC4-4B86-8E3A-5339812C50FB}" name="STT" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{6FAD5AB5-298C-4A36-ABDC-A5D9637FDD1B}" name="HỌ TÊN" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{B8AA6E27-3B1B-40DE-899F-FFE99DDB57E5}" name="ĐIỆN THOẠI" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{4A9ADB20-D7DF-41CA-A8B0-984E178EC636}" name="CCCD" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{9B2F3F47-F0A9-472C-BEF4-AE2187C4E05F}" name="ĐỊA CHỈ" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{A93CFF17-7D8F-4ADE-9556-9E23EA0BDBC5}" name="BIỂN SỐ XE" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{D22577A6-97FC-4DD1-91D6-50E6CF26FEF7}" name="DOANH THU" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{B0C89032-0AB4-4BCC-90ED-56250C2EDD5D}" name="THỰC LÃNH" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{216960B2-93E0-43AB-B56B-23F8BB3330DB}" name="HÌNH THỨC" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{7060E0DD-09FF-405F-A9FC-E7C96FDB4D0F}" name="BILL" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{A433299F-94CA-47C8-AE3A-BF29422D90EA}" name="NOTE" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1510,32 +1611,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="5" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -1560,10 +1661,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>7</v>
@@ -1577,16 +1678,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>38096003688</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H6" s="6">
         <v>1300000</v>
@@ -1596,7 +1697,7 @@
         <v>650000</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -1606,28 +1707,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4">
         <v>91203011680</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="13">
+        <v>31</v>
+      </c>
+      <c r="H7" s="9">
         <v>1640000</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>820000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -1640,16 +1741,16 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4">
         <v>89078016404</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H8" s="6">
         <v>1440000</v>
@@ -1659,7 +1760,7 @@
         <v>720000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -1672,16 +1773,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
         <v>89099008054</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H9" s="6">
         <v>1920000</v>
@@ -1691,7 +1792,7 @@
         <v>960000</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -1704,16 +1805,16 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4">
         <v>91088020664</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H10" s="6">
         <v>1480000</v>
@@ -1723,7 +1824,7 @@
         <v>740000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -1735,17 +1836,17 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>43</v>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="H11" s="6">
         <v>1430000</v>
@@ -1755,7 +1856,7 @@
         <v>715000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -1767,17 +1868,17 @@
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>43</v>
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="H12" s="6">
         <v>1315000</v>
@@ -1786,7 +1887,7 @@
         <v>660000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -1798,17 +1899,17 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>43</v>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="H13" s="6">
         <v>1745000</v>
@@ -1817,7 +1918,7 @@
         <v>872000</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -1829,17 +1930,17 @@
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>46</v>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="6">
         <v>1600000</v>
@@ -1849,7 +1950,7 @@
         <v>800000</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -1861,23 +1962,23 @@
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>43</v>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
@@ -1890,17 +1991,17 @@
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>49</v>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="H16" s="6">
         <v>1500000</v>
@@ -1910,7 +2011,7 @@
         <v>750000</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1922,17 +2023,17 @@
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>53</v>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="H17" s="6">
         <v>1910000</v>
@@ -1942,7 +2043,7 @@
         <v>955000</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1954,23 +2055,23 @@
       <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>43</v>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
@@ -1983,17 +2084,17 @@
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8">
         <v>42094001136</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>43</v>
+      <c r="F19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="H19" s="6">
         <v>1950000</v>
@@ -2003,7 +2104,7 @@
         <v>975000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -2068,21 +2169,21 @@
       <c r="K22" s="2"/>
     </row>
     <row r="25" spans="2:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15">
+      <c r="H25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="10">
         <f>SUM(H6:H1000)</f>
         <v>19230000</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15">
+      <c r="H26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="10">
         <f>SUM(I6:I1000)</f>
         <v>9617000</v>
       </c>
@@ -2130,32 +2231,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="5" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -2180,10 +2281,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>7</v>
@@ -2193,30 +2294,30 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>38096003688</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="16">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11">
         <v>1300000</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="11">
         <f>IF(ISNUMBER(H6),H6/2,"")</f>
         <v>650000</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -2225,26 +2326,26 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>51</v>
+      <c r="C7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4">
         <v>91203011680</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
@@ -2254,30 +2355,30 @@
         <f t="shared" ref="B8:B22" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4">
         <v>89078016404</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="16">
+        <v>32</v>
+      </c>
+      <c r="H8" s="11">
         <v>1440000</v>
       </c>
-      <c r="I8" s="16">
-        <f t="shared" ref="I6:I22" si="1">IF(ISNUMBER(H8),H8/2,"")</f>
+      <c r="I8" s="11">
+        <f t="shared" ref="I8:I22" si="1">IF(ISNUMBER(H8),H8/2,"")</f>
         <v>720000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -2286,30 +2387,30 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
         <v>89099008054</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="16">
+        <v>34</v>
+      </c>
+      <c r="H9" s="11">
         <v>1920000</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="11">
         <f t="shared" si="1"/>
         <v>960000</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -2318,30 +2419,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4">
         <v>91088020664</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="16">
+        <v>37</v>
+      </c>
+      <c r="H10" s="11">
         <v>1480000</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="11">
         <f t="shared" si="1"/>
         <v>740000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -2350,30 +2451,30 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="11">
         <v>1430000</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="11">
         <f t="shared" si="1"/>
         <v>715000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -2382,29 +2483,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="11">
         <v>1315000</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="11">
         <v>660000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -2413,29 +2514,29 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="11">
         <v>1745000</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="11">
         <v>872000</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -2444,30 +2545,30 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1600000</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1600000</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -2476,26 +2577,26 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>43</v>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
@@ -2505,30 +2606,30 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="11">
         <v>1500000</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="11">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -2537,30 +2638,30 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="11">
         <v>1910000</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="11">
         <f t="shared" si="1"/>
         <v>955000</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -2569,26 +2670,26 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>43</v>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
@@ -2598,30 +2699,30 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="C19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8">
         <v>42094001136</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="F19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="11">
         <v>1810000</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="11">
         <f t="shared" si="1"/>
         <v>905000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -2686,21 +2787,21 @@
       <c r="K22" s="2"/>
     </row>
     <row r="25" spans="2:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15">
+      <c r="H25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="10">
         <f>SUM(H6:H1000)</f>
         <v>17450000</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15">
+      <c r="H26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="10">
         <f>SUM(I6:I1000)</f>
         <v>8727000</v>
       </c>
@@ -2725,8 +2826,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,32 +2847,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="B3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="5" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -2796,10 +2897,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>7</v>
@@ -2809,30 +2910,30 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>38096003688</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="16">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11">
         <v>1300000</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="11">
         <f>IF(ISNUMBER(H6),H6/2,"")</f>
         <v>650000</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -2841,30 +2942,30 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>51</v>
+      <c r="C7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4">
         <v>91203011680</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="17">
+        <v>31</v>
+      </c>
+      <c r="H7" s="12">
         <v>1640000</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="11">
         <f t="shared" ref="I7:I19" si="0">IF(ISNUMBER(H7),H7/2,"")</f>
         <v>820000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -2873,30 +2974,30 @@
         <f t="shared" ref="B8:B22" si="1">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4">
         <v>89078016404</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="16">
+        <v>32</v>
+      </c>
+      <c r="H8" s="11">
         <v>1320000</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>660000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -2905,29 +3006,29 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
         <v>89099008054</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -2936,30 +3037,30 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4">
         <v>91088020664</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="16">
+        <v>37</v>
+      </c>
+      <c r="H10" s="11">
         <v>1600000</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="11">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -2968,30 +3069,30 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="11">
         <v>1480000</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>740000</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -3000,30 +3101,30 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="11">
         <v>1440000</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="11">
         <f t="shared" si="0"/>
         <v>720000</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -3032,29 +3133,29 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="11">
         <v>1505000</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="11">
         <v>752000</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -3063,30 +3164,30 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1500000</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" si="0"/>
-        <v>750000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -3095,25 +3196,25 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="12">
         <v>1860000</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="11">
         <f t="shared" si="0"/>
         <v>930000</v>
       </c>
@@ -3125,30 +3226,30 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="11">
         <v>1350000</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="11">
         <f t="shared" si="0"/>
         <v>675000</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -3157,30 +3258,30 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="11">
         <v>1310000</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="11">
         <f t="shared" si="0"/>
         <v>655000</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -3189,26 +3290,26 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>43</v>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
@@ -3218,30 +3319,30 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="C19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8">
         <v>42094001136</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="F19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="11">
         <v>1930000</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="11">
         <f t="shared" si="0"/>
         <v>965000</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -3259,7 +3360,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="6" t="str">
-        <f t="shared" ref="I6:I22" si="2">IF(ISNUMBER(H20),H20/2,"")</f>
+        <f t="shared" ref="I20:I22" si="2">IF(ISNUMBER(H20),H20/2,"")</f>
         <v/>
       </c>
       <c r="J20" s="3"/>
@@ -3306,21 +3407,21 @@
       <c r="K22" s="2"/>
     </row>
     <row r="25" spans="2:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15">
+      <c r="H25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="10">
         <f>SUM(H6:H1000)</f>
         <v>18235000</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15">
+      <c r="H26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="10">
         <f>SUM(I6:I1000)</f>
         <v>9117000</v>
       </c>
@@ -3344,12 +3445,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C685DF-FE4D-42E9-BA5F-530506ACC56E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDFD608-160F-4BF1-86F8-D9455234BF27}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3365,462 +3466,545 @@
     <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="36" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="24.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:12" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="6" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4">
+        <v>38096003688</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1300000</v>
+      </c>
+      <c r="I7" s="11">
+        <f>IF(ISNUMBER(H7),H7/2,"")</f>
+        <v>650000</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4">
+        <v>91203011680</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" ref="H8:I20" si="0">IF(ISNUMBER(H8),H8/2,"")</f>
+        <v>900000</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f t="shared" ref="B9:B23" si="1">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4">
+        <v>89078016404</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2545000</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1275000</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4">
+        <v>89099008054</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="11">
+        <v>300000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
+        <v>91088020664</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="2:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="H12" s="24">
+        <v>310000</v>
+      </c>
+      <c r="I12" s="24">
+        <v>310000</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="5" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="5" t="s">
+    </row>
+    <row r="13" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="C13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="24">
+        <v>755000</v>
+      </c>
+      <c r="I13" s="24">
+        <v>355000</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4">
-        <v>38096003688</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <f>B6+1</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4">
-        <v>91203011680</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <f t="shared" ref="B8:B22" si="0">B7+1</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="C14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1180000</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>590000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4">
-        <v>89078016404</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4">
-        <v>89099008054</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4">
-        <v>91088020664</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="C15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="8">
+        <v>49202008987</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="11">
+        <v>640000</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="0"/>
+        <v>320000</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
+      <c r="C19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1780000</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="0"/>
+        <v>890000</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="C20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="8">
         <v>42094001136</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="6" t="str">
-        <f t="shared" ref="I7:I22" si="1">IF(ISNUMBER(H20),H20/2,"")</f>
+      <c r="F20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="2:12" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="27">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f t="shared" si="1"/>
         <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -3831,30 +4015,52 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I8:I23" si="2">IF(ISNUMBER(H22),H22/2,"")</f>
         <v/>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="25" spans="2:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15">
-        <f>SUM(H6:H1000)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15">
-        <f>SUM(I6:I1000)</f>
-        <v>0</v>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="25" spans="2:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="10">
+        <f>SUM(H7:H1000)</f>
+        <v>14210000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="H26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="10">
+        <f>SUM(I7:I1000)</f>
+        <v>7240000</v>
       </c>
     </row>
   </sheetData>
